--- a/outputs-r202/o__Chitinivibrionales.xlsx
+++ b/outputs-r202/o__Chitinivibrionales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>f__Chitinispirillaceae</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>f__Chitinispirillaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>f__Chitinivibrionaceae</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>f__Chitinivibrionaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>f__Chitinivibrionaceae</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>f__Chitinivibrionaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>f__Chitinispirillaceae</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>f__Chitinispirillaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>f__Chitinispirillaceae</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>f__Chitinispirillaceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>f__Chitinivibrionaceae</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>f__Chitinivibrionaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -631,6 +666,11 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>f__Chitinispirillaceae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>f__Chitinispirillaceae(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/o__Chitinivibrionales.xlsx
+++ b/outputs-r202/o__Chitinivibrionales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,20 +474,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG081.fasta</t>
+          <t>RUG520.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05555555386231882</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7777777615507261</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1666666845869551</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7777777615507261</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,181 +496,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>f__Chitinispirillaceae(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>RUG163.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0281700988879947</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.219877428543317e-14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9718299011119831</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9718299011119831</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>f__Chitinivibrionaceae</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>f__Chitinivibrionaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG243.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0281700988879947</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.219877428543317e-14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9718299011119831</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9718299011119831</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>f__Chitinivibrionaceae</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>f__Chitinivibrionaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RUG441.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4.113241837517128e-14</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8058369263406144</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1941630736593445</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8058369263406144</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>f__Chitinispirillaceae</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>f__Chitinispirillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>RUG520.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>f__Chitinispirillaceae</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>f__Chitinispirillaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>RUG741.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.3173053813546362</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2692354898923949</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.4134591287529689</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.4134591287529689</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>f__Chitinivibrionaceae</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>f__Chitinivibrionaceae(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>RUG775.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.05555555386231882</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7777777615507261</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1666666845869551</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.7777777615507261</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>f__Chitinispirillaceae</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>f__Chitinispirillaceae(reject)</t>
         </is>
       </c>
     </row>
